--- a/Code/Results/Cases/Case_0_122/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_122/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9696069654806977</v>
+        <v>1.027510331597459</v>
       </c>
       <c r="D2">
-        <v>0.9797170837273228</v>
+        <v>1.028816560393554</v>
       </c>
       <c r="E2">
-        <v>0.9853371803107575</v>
+        <v>1.036184467811834</v>
       </c>
       <c r="F2">
-        <v>0.9864538976859738</v>
+        <v>1.043970251305802</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9927363497540761</v>
+        <v>1.032667803777056</v>
       </c>
       <c r="K2">
-        <v>0.991466415847456</v>
+        <v>1.031632276888562</v>
       </c>
       <c r="L2">
-        <v>0.9970046431290078</v>
+        <v>1.038978935124797</v>
       </c>
       <c r="M2">
-        <v>0.9981052337738668</v>
+        <v>1.046742618042305</v>
       </c>
       <c r="N2">
-        <v>0.9941461492391778</v>
+        <v>1.034134310507094</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9763335181888445</v>
+        <v>1.028893043923552</v>
       </c>
       <c r="D3">
-        <v>0.9854158156656174</v>
+        <v>1.030039968870525</v>
       </c>
       <c r="E3">
-        <v>0.9912405287132527</v>
+        <v>1.037455394122875</v>
       </c>
       <c r="F3">
-        <v>0.9931286263097671</v>
+        <v>1.045422046661948</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9974908279561268</v>
+        <v>1.033688507682871</v>
       </c>
       <c r="K3">
-        <v>0.9962387688038418</v>
+        <v>1.032662580953609</v>
       </c>
       <c r="L3">
-        <v>1.001986729264593</v>
+        <v>1.04005818633081</v>
       </c>
       <c r="M3">
-        <v>1.003850189264241</v>
+        <v>1.048003884081038</v>
       </c>
       <c r="N3">
-        <v>0.9989073793456216</v>
+        <v>1.03515646392951</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9805692451462674</v>
+        <v>1.029787481076281</v>
       </c>
       <c r="D4">
-        <v>0.9890109230574793</v>
+        <v>1.030831580599396</v>
       </c>
       <c r="E4">
-        <v>0.994964793326146</v>
+        <v>1.038277790879478</v>
       </c>
       <c r="F4">
-        <v>0.9973404415239481</v>
+        <v>1.046361769813065</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.000483398898874</v>
+        <v>1.034348301310005</v>
       </c>
       <c r="K4">
-        <v>0.9992438112915583</v>
+        <v>1.033328686352143</v>
       </c>
       <c r="L4">
-        <v>1.00512437115986</v>
+        <v>1.040756008892513</v>
       </c>
       <c r="M4">
-        <v>1.007471071411998</v>
+        <v>1.048819810016611</v>
       </c>
       <c r="N4">
-        <v>1.00190420008236</v>
+        <v>1.035817194539274</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.982323471269131</v>
+        <v>1.030163442453252</v>
       </c>
       <c r="D5">
-        <v>0.9905013310534155</v>
+        <v>1.03116437379318</v>
       </c>
       <c r="E5">
-        <v>0.9965087704455768</v>
+        <v>1.038623535380957</v>
       </c>
       <c r="F5">
-        <v>0.9990867947609436</v>
+        <v>1.046756909016545</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.001722386966615</v>
+        <v>1.034625521237687</v>
       </c>
       <c r="K5">
-        <v>1.000488248400798</v>
+        <v>1.033608583556462</v>
       </c>
       <c r="L5">
-        <v>1.006423851824923</v>
+        <v>1.041049250978025</v>
       </c>
       <c r="M5">
-        <v>1.008971376629581</v>
+        <v>1.049162781780916</v>
       </c>
       <c r="N5">
-        <v>1.003144947655272</v>
+        <v>1.036094808151051</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9826165023294409</v>
+        <v>1.030226564640103</v>
       </c>
       <c r="D6">
-        <v>0.9907503785434461</v>
+        <v>1.031220251308486</v>
       </c>
       <c r="E6">
-        <v>0.996766771028111</v>
+        <v>1.038681588028801</v>
       </c>
       <c r="F6">
-        <v>0.9993786283540788</v>
+        <v>1.046823259419736</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.001929326709021</v>
+        <v>1.034672058548405</v>
       </c>
       <c r="K6">
-        <v>1.000696114848284</v>
+        <v>1.03365557178718</v>
       </c>
       <c r="L6">
-        <v>1.00664092041993</v>
+        <v>1.041098480522787</v>
       </c>
       <c r="M6">
-        <v>1.009222032286702</v>
+        <v>1.049220365808535</v>
       </c>
       <c r="N6">
-        <v>1.003352181275848</v>
+        <v>1.036141411550087</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9805927873390328</v>
+        <v>1.029792504920549</v>
       </c>
       <c r="D7">
-        <v>0.9890309189419144</v>
+        <v>1.030836027395723</v>
       </c>
       <c r="E7">
-        <v>0.9949855078060235</v>
+        <v>1.038282410695054</v>
       </c>
       <c r="F7">
-        <v>0.997363870109585</v>
+        <v>1.046367049364352</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1.000500028061964</v>
+        <v>1.034352006150541</v>
       </c>
       <c r="K7">
-        <v>0.9992605124689744</v>
+        <v>1.033332426873143</v>
       </c>
       <c r="L7">
-        <v>1.005141810531847</v>
+        <v>1.040759927685063</v>
       </c>
       <c r="M7">
-        <v>1.007491203166524</v>
+        <v>1.048824392988328</v>
       </c>
       <c r="N7">
-        <v>1.001920852860769</v>
+        <v>1.035820904641108</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9719053539760715</v>
+        <v>1.027977684463047</v>
       </c>
       <c r="D8">
-        <v>0.981662829719412</v>
+        <v>1.029230022185555</v>
       </c>
       <c r="E8">
-        <v>0.9873527789637704</v>
+        <v>1.036613980787314</v>
       </c>
       <c r="F8">
-        <v>0.9887327013389028</v>
+        <v>1.044460829820965</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.9943611426919987</v>
+        <v>1.033012896046097</v>
       </c>
       <c r="K8">
-        <v>0.9930970553648337</v>
+        <v>1.03198059285211</v>
       </c>
       <c r="L8">
-        <v>0.9987068347274223</v>
+        <v>1.039343783782489</v>
       </c>
       <c r="M8">
-        <v>1.000067489824349</v>
+        <v>1.047168911987314</v>
       </c>
       <c r="N8">
-        <v>0.9957732495694386</v>
+        <v>1.034479892846718</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9556288962569087</v>
+        <v>1.02477746014151</v>
       </c>
       <c r="D9">
-        <v>0.9679161554726833</v>
+        <v>1.026399770131655</v>
       </c>
       <c r="E9">
-        <v>0.9731125728772059</v>
+        <v>1.03367400778006</v>
       </c>
       <c r="F9">
-        <v>0.9726353356386742</v>
+        <v>1.041104043147697</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.9828520484017853</v>
+        <v>1.030647942229689</v>
       </c>
       <c r="K9">
-        <v>0.9815521418671829</v>
+        <v>1.029593986455952</v>
       </c>
       <c r="L9">
-        <v>0.9866574824338793</v>
+        <v>1.036844191959806</v>
       </c>
       <c r="M9">
-        <v>0.9861885571128984</v>
+        <v>1.044250060285979</v>
       </c>
       <c r="N9">
-        <v>0.9842478110452214</v>
+        <v>1.032111580524626</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9440124074524223</v>
+        <v>1.022642151200195</v>
       </c>
       <c r="D10">
-        <v>0.9581518334429978</v>
+        <v>1.024512548296932</v>
       </c>
       <c r="E10">
-        <v>0.9629972568142952</v>
+        <v>1.031713812199103</v>
       </c>
       <c r="F10">
-        <v>0.9612019969825782</v>
+        <v>1.038867404259758</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.9746380199364332</v>
+        <v>1.029067567110578</v>
       </c>
       <c r="K10">
-        <v>0.9733201390135022</v>
+        <v>1.027999698602441</v>
       </c>
       <c r="L10">
-        <v>0.9780683688586368</v>
+        <v>1.035174795042702</v>
       </c>
       <c r="M10">
-        <v>0.9763089695092021</v>
+        <v>1.042302789122539</v>
       </c>
       <c r="N10">
-        <v>0.9760221177172864</v>
+        <v>1.030528961091575</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9387711034653253</v>
+        <v>1.021717040028188</v>
       </c>
       <c r="D11">
-        <v>0.9537591416940802</v>
+        <v>1.023695221703369</v>
       </c>
       <c r="E11">
-        <v>0.9584464162916875</v>
+        <v>1.030864925184077</v>
       </c>
       <c r="F11">
-        <v>0.9560577977624926</v>
+        <v>1.037899143375257</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.9709331829041052</v>
+        <v>1.028382316426072</v>
       </c>
       <c r="K11">
-        <v>0.9696091553519316</v>
+        <v>1.027308548652399</v>
       </c>
       <c r="L11">
-        <v>0.9741969532527309</v>
+        <v>1.034451170293382</v>
       </c>
       <c r="M11">
-        <v>0.9718588662892427</v>
+        <v>1.041459220739039</v>
       </c>
       <c r="N11">
-        <v>0.9723120193914218</v>
+        <v>1.029842737272497</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9367896109845917</v>
+        <v>1.021373330462032</v>
       </c>
       <c r="D12">
-        <v>0.95210058688183</v>
+        <v>1.023391604010616</v>
       </c>
       <c r="E12">
-        <v>0.9567280986495028</v>
+        <v>1.0305495899387</v>
       </c>
       <c r="F12">
-        <v>0.9541153168609189</v>
+        <v>1.037539515714689</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.9695328743099327</v>
+        <v>1.028127639064292</v>
       </c>
       <c r="K12">
-        <v>0.9682068332204847</v>
+        <v>1.027051698930343</v>
       </c>
       <c r="L12">
-        <v>0.9727340843832201</v>
+        <v>1.034182264958065</v>
       </c>
       <c r="M12">
-        <v>0.9701777529665735</v>
+        <v>1.041145819046869</v>
       </c>
       <c r="N12">
-        <v>0.9709097221984275</v>
+        <v>1.029587698239652</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9372162657039615</v>
+        <v>1.021447061137352</v>
       </c>
       <c r="D13">
-        <v>0.9524576081384866</v>
+        <v>1.0234567322883</v>
       </c>
       <c r="E13">
-        <v>0.9570979869802578</v>
+        <v>1.030617231431484</v>
       </c>
       <c r="F13">
-        <v>0.9545334655714053</v>
+        <v>1.037616655907344</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.9698343721487251</v>
+        <v>1.028182274834975</v>
       </c>
       <c r="K13">
-        <v>0.9685087503502905</v>
+        <v>1.027106799823219</v>
       </c>
       <c r="L13">
-        <v>0.973049033670216</v>
+        <v>1.034239951509002</v>
       </c>
       <c r="M13">
-        <v>0.9705396707780718</v>
+        <v>1.041213047692358</v>
       </c>
       <c r="N13">
-        <v>0.9712116481987337</v>
+        <v>1.029642411599396</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9386080373049903</v>
+        <v>1.021688630595919</v>
       </c>
       <c r="D14">
-        <v>0.9536226075491845</v>
+        <v>1.023670125128552</v>
       </c>
       <c r="E14">
-        <v>0.9583049635047387</v>
+        <v>1.030838859924248</v>
       </c>
       <c r="F14">
-        <v>0.9558978945934337</v>
+        <v>1.03786941590941</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.9708179378564814</v>
+        <v>1.028361267691008</v>
       </c>
       <c r="K14">
-        <v>0.969493738215166</v>
+        <v>1.027287319963415</v>
       </c>
       <c r="L14">
-        <v>0.9740765513082573</v>
+        <v>1.034428944942706</v>
       </c>
       <c r="M14">
-        <v>0.9717204932772967</v>
+        <v>1.041433316166309</v>
       </c>
       <c r="N14">
-        <v>0.9721966106826114</v>
+        <v>1.029821658645816</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9394608711292795</v>
+        <v>1.021837458463471</v>
       </c>
       <c r="D15">
-        <v>0.9543367664546305</v>
+        <v>1.02380159990479</v>
       </c>
       <c r="E15">
-        <v>0.9590448478505568</v>
+        <v>1.030975409664376</v>
       </c>
       <c r="F15">
-        <v>0.9567342803571736</v>
+        <v>1.038025153180162</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.9714206815749016</v>
+        <v>1.028471531801369</v>
       </c>
       <c r="K15">
-        <v>0.9700973946654327</v>
+        <v>1.027398527590114</v>
       </c>
       <c r="L15">
-        <v>0.9747062825141093</v>
+        <v>1.034545374162417</v>
       </c>
       <c r="M15">
-        <v>0.9724442344531176</v>
+        <v>1.041569022376539</v>
       </c>
       <c r="N15">
-        <v>0.9728002103662476</v>
+        <v>1.02993207934386</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9443555647070259</v>
+        <v>1.022703536584787</v>
       </c>
       <c r="D16">
-        <v>0.9584397126873174</v>
+        <v>1.024566788122119</v>
       </c>
       <c r="E16">
-        <v>0.9632954942788752</v>
+        <v>1.031770147356644</v>
       </c>
       <c r="F16">
-        <v>0.9615391067712162</v>
+        <v>1.038931668698935</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.9748806188999422</v>
+        <v>1.029113024854575</v>
       </c>
       <c r="K16">
-        <v>0.9735631823341544</v>
+        <v>1.028045550504569</v>
       </c>
       <c r="L16">
-        <v>0.9783219303839878</v>
+        <v>1.035222803180625</v>
       </c>
       <c r="M16">
-        <v>0.9766004921671334</v>
+        <v>1.042358765423203</v>
       </c>
       <c r="N16">
-        <v>0.97626506119915</v>
+        <v>1.030574483390782</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9473673720257115</v>
+        <v>1.023246664388997</v>
       </c>
       <c r="D17">
-        <v>0.9609678382383439</v>
+        <v>1.025046728201882</v>
       </c>
       <c r="E17">
-        <v>0.9659145552426722</v>
+        <v>1.032268632942376</v>
       </c>
       <c r="F17">
-        <v>0.9644994859774293</v>
+        <v>1.039500356710895</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.9770100103794791</v>
+        <v>1.029515162702888</v>
       </c>
       <c r="K17">
-        <v>0.975696697394268</v>
+        <v>1.02845119063878</v>
       </c>
       <c r="L17">
-        <v>0.9805478397133383</v>
+        <v>1.035647528930457</v>
       </c>
       <c r="M17">
-        <v>0.979159979642848</v>
+        <v>1.042854043434037</v>
       </c>
       <c r="N17">
-        <v>0.9783974766588325</v>
+        <v>1.030977192320966</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9491039352110103</v>
+        <v>1.023563412991789</v>
       </c>
       <c r="D18">
-        <v>0.9624267218665481</v>
+        <v>1.025326655217996</v>
       </c>
       <c r="E18">
-        <v>0.9674258918671859</v>
+        <v>1.032559380893348</v>
       </c>
       <c r="F18">
-        <v>0.9662077493679623</v>
+        <v>1.039832084249133</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.9782378988623104</v>
+        <v>1.029749632680744</v>
       </c>
       <c r="K18">
-        <v>0.9769271472034706</v>
+        <v>1.028687715498335</v>
       </c>
       <c r="L18">
-        <v>0.981831628004753</v>
+        <v>1.035895190745699</v>
       </c>
       <c r="M18">
-        <v>0.9806364403414943</v>
+        <v>1.043142893684339</v>
       </c>
       <c r="N18">
-        <v>0.9796271088841502</v>
+        <v>1.031211995273084</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9496927190060621</v>
+        <v>1.02367140799919</v>
       </c>
       <c r="D19">
-        <v>0.9629215574310377</v>
+        <v>1.025422100860331</v>
       </c>
       <c r="E19">
-        <v>0.9679385154409628</v>
+        <v>1.03265851682293</v>
       </c>
       <c r="F19">
-        <v>0.9667871640273572</v>
+        <v>1.039945198563258</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.9786542316399732</v>
+        <v>1.029829565696024</v>
       </c>
       <c r="K19">
-        <v>0.9773443791407145</v>
+        <v>1.028768351217203</v>
       </c>
       <c r="L19">
-        <v>0.9822669554818775</v>
+        <v>1.035979624672345</v>
       </c>
       <c r="M19">
-        <v>0.9811371508247061</v>
+        <v>1.043241378014307</v>
       </c>
       <c r="N19">
-        <v>0.9800440329021113</v>
+        <v>1.031292041802415</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9470463400101836</v>
+        <v>1.023188396991427</v>
       </c>
       <c r="D20">
-        <v>0.9606982361321216</v>
+        <v>1.024995236643481</v>
       </c>
       <c r="E20">
-        <v>0.9656352580924336</v>
+        <v>1.032215151250651</v>
       </c>
       <c r="F20">
-        <v>0.9641837943291001</v>
+        <v>1.039439339691132</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.9767830235021814</v>
+        <v>1.029472026479032</v>
       </c>
       <c r="K20">
-        <v>0.9754692517878842</v>
+        <v>1.02840767740486</v>
       </c>
       <c r="L20">
-        <v>0.9803105389042672</v>
+        <v>1.035601967512463</v>
       </c>
       <c r="M20">
-        <v>0.9788870874625161</v>
+        <v>1.042800908656557</v>
       </c>
       <c r="N20">
-        <v>0.978170167434133</v>
+        <v>1.030933994838725</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9381991764910423</v>
+        <v>1.021617496723347</v>
       </c>
       <c r="D21">
-        <v>0.9532803059538867</v>
+        <v>1.023607287012213</v>
       </c>
       <c r="E21">
-        <v>0.9579503296379076</v>
+        <v>1.030773596466803</v>
       </c>
       <c r="F21">
-        <v>0.9554970019078038</v>
+        <v>1.037794983670888</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.9705289859399329</v>
+        <v>1.028308562782891</v>
       </c>
       <c r="K21">
-        <v>0.9692043598582862</v>
+        <v>1.027234164785899</v>
       </c>
       <c r="L21">
-        <v>0.9737746760826637</v>
+        <v>1.034373294400772</v>
       </c>
       <c r="M21">
-        <v>0.9713735671499578</v>
+        <v>1.041368454362952</v>
       </c>
       <c r="N21">
-        <v>0.9719072484211981</v>
+        <v>1.029768878890683</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9324344990860649</v>
+        <v>1.020629331602536</v>
       </c>
       <c r="D22">
-        <v>0.9484593717975467</v>
+        <v>1.022734474334226</v>
       </c>
       <c r="E22">
-        <v>0.9529555707897366</v>
+        <v>1.029867111170913</v>
       </c>
       <c r="F22">
-        <v>0.9498503437477732</v>
+        <v>1.036761268503874</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.9664558763341887</v>
+        <v>1.027576207601986</v>
       </c>
       <c r="K22">
-        <v>0.965125999941617</v>
+        <v>1.026495600789228</v>
       </c>
       <c r="L22">
-        <v>0.9695203706438138</v>
+        <v>1.033600089044928</v>
       </c>
       <c r="M22">
-        <v>0.9664853322354895</v>
+        <v>1.040467447624598</v>
       </c>
       <c r="N22">
-        <v>0.9678283545326217</v>
+        <v>1.02903548368142</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9355106847126353</v>
+        <v>1.021153223831285</v>
       </c>
       <c r="D23">
-        <v>0.951030716421546</v>
+        <v>1.023197184788924</v>
       </c>
       <c r="E23">
-        <v>0.9556196615005351</v>
+        <v>1.03034766926263</v>
       </c>
       <c r="F23">
-        <v>0.9528622357238501</v>
+        <v>1.037309247385818</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.9686291709353392</v>
+        <v>1.02796452379171</v>
       </c>
       <c r="K23">
-        <v>0.9673019197220983</v>
+        <v>1.02688719799077</v>
       </c>
       <c r="L23">
-        <v>0.9717901215952709</v>
+        <v>1.034010046548583</v>
       </c>
       <c r="M23">
-        <v>0.9690930761432516</v>
+        <v>1.040945124589173</v>
       </c>
       <c r="N23">
-        <v>0.970004735461386</v>
+        <v>1.029424351324673</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9471914626856711</v>
+        <v>1.02321472567028</v>
       </c>
       <c r="D24">
-        <v>0.9608201061663442</v>
+        <v>1.025018503505078</v>
       </c>
       <c r="E24">
-        <v>0.9657615107102137</v>
+        <v>1.032239317356518</v>
       </c>
       <c r="F24">
-        <v>0.9643264986972921</v>
+        <v>1.039466910589366</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.9768856326859954</v>
+        <v>1.029491518160383</v>
       </c>
       <c r="K24">
-        <v>0.9755720677709835</v>
+        <v>1.028427339403589</v>
       </c>
       <c r="L24">
-        <v>0.9804178097336309</v>
+        <v>1.035622554983062</v>
       </c>
       <c r="M24">
-        <v>0.979010446343704</v>
+        <v>1.042824918089506</v>
       </c>
       <c r="N24">
-        <v>0.9782729223347575</v>
+        <v>1.030953514200498</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9599625361728359</v>
+        <v>1.025605095095596</v>
       </c>
       <c r="D25">
-        <v>0.9715688273521518</v>
+        <v>1.027131511033063</v>
       </c>
       <c r="E25">
-        <v>0.976896413725563</v>
+        <v>1.034434082541934</v>
       </c>
       <c r="F25">
-        <v>0.9769122495716155</v>
+        <v>1.041971618222793</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.9859167563958539</v>
+        <v>1.031259984173877</v>
       </c>
       <c r="K25">
-        <v>0.9846251404318862</v>
+        <v>1.030211534456443</v>
       </c>
       <c r="L25">
-        <v>0.9898642937315897</v>
+        <v>1.037490910712362</v>
       </c>
       <c r="M25">
-        <v>0.9898798685667911</v>
+        <v>1.045004877348884</v>
       </c>
       <c r="N25">
-        <v>0.9873168712761685</v>
+        <v>1.032724491638578</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_122/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_122/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.027510331597459</v>
+        <v>0.9696069654806989</v>
       </c>
       <c r="D2">
-        <v>1.028816560393554</v>
+        <v>0.9797170837273238</v>
       </c>
       <c r="E2">
-        <v>1.036184467811834</v>
+        <v>0.9853371803107585</v>
       </c>
       <c r="F2">
-        <v>1.043970251305802</v>
+        <v>0.9864538976859749</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>1.032667803777056</v>
+        <v>0.9927363497540773</v>
       </c>
       <c r="K2">
-        <v>1.031632276888562</v>
+        <v>0.991466415847457</v>
       </c>
       <c r="L2">
-        <v>1.038978935124797</v>
+        <v>0.9970046431290088</v>
       </c>
       <c r="M2">
-        <v>1.046742618042305</v>
+        <v>0.9981052337738682</v>
       </c>
       <c r="N2">
-        <v>1.034134310507094</v>
+        <v>0.9941461492391789</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.028893043923552</v>
+        <v>0.9763335181888446</v>
       </c>
       <c r="D3">
-        <v>1.030039968870525</v>
+        <v>0.9854158156656175</v>
       </c>
       <c r="E3">
-        <v>1.037455394122875</v>
+        <v>0.9912405287132527</v>
       </c>
       <c r="F3">
-        <v>1.045422046661948</v>
+        <v>0.9931286263097669</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1.033688507682871</v>
+        <v>0.9974908279561268</v>
       </c>
       <c r="K3">
-        <v>1.032662580953609</v>
+        <v>0.9962387688038418</v>
       </c>
       <c r="L3">
-        <v>1.04005818633081</v>
+        <v>1.001986729264593</v>
       </c>
       <c r="M3">
-        <v>1.048003884081038</v>
+        <v>1.003850189264241</v>
       </c>
       <c r="N3">
-        <v>1.03515646392951</v>
+        <v>0.9989073793456215</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.029787481076281</v>
+        <v>0.9805692451462661</v>
       </c>
       <c r="D4">
-        <v>1.030831580599396</v>
+        <v>0.9890109230574782</v>
       </c>
       <c r="E4">
-        <v>1.038277790879478</v>
+        <v>0.9949647933261447</v>
       </c>
       <c r="F4">
-        <v>1.046361769813065</v>
+        <v>0.9973404415239469</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.034348301310005</v>
+        <v>1.000483398898872</v>
       </c>
       <c r="K4">
-        <v>1.033328686352143</v>
+        <v>0.9992438112915571</v>
       </c>
       <c r="L4">
-        <v>1.040756008892513</v>
+        <v>1.005124371159859</v>
       </c>
       <c r="M4">
-        <v>1.048819810016611</v>
+        <v>1.007471071411997</v>
       </c>
       <c r="N4">
-        <v>1.035817194539274</v>
+        <v>1.001904200082359</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.030163442453252</v>
+        <v>0.9823234712691307</v>
       </c>
       <c r="D5">
-        <v>1.03116437379318</v>
+        <v>0.990501331053415</v>
       </c>
       <c r="E5">
-        <v>1.038623535380957</v>
+        <v>0.9965087704455766</v>
       </c>
       <c r="F5">
-        <v>1.046756909016545</v>
+        <v>0.9990867947609435</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.034625521237687</v>
+        <v>1.001722386966615</v>
       </c>
       <c r="K5">
-        <v>1.033608583556462</v>
+        <v>1.000488248400798</v>
       </c>
       <c r="L5">
-        <v>1.041049250978025</v>
+        <v>1.006423851824923</v>
       </c>
       <c r="M5">
-        <v>1.049162781780916</v>
+        <v>1.008971376629581</v>
       </c>
       <c r="N5">
-        <v>1.036094808151051</v>
+        <v>1.003144947655271</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.030226564640103</v>
+        <v>0.9826165023294419</v>
       </c>
       <c r="D6">
-        <v>1.031220251308486</v>
+        <v>0.9907503785434476</v>
       </c>
       <c r="E6">
-        <v>1.038681588028801</v>
+        <v>0.9967667710281118</v>
       </c>
       <c r="F6">
-        <v>1.046823259419736</v>
+        <v>0.9993786283540798</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.034672058548405</v>
+        <v>1.001929326709023</v>
       </c>
       <c r="K6">
-        <v>1.03365557178718</v>
+        <v>1.000696114848286</v>
       </c>
       <c r="L6">
-        <v>1.041098480522787</v>
+        <v>1.006640920419931</v>
       </c>
       <c r="M6">
-        <v>1.049220365808535</v>
+        <v>1.009222032286702</v>
       </c>
       <c r="N6">
-        <v>1.036141411550087</v>
+        <v>1.003352181275849</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.029792504920549</v>
+        <v>0.9805927873390325</v>
       </c>
       <c r="D7">
-        <v>1.030836027395723</v>
+        <v>0.9890309189419142</v>
       </c>
       <c r="E7">
-        <v>1.038282410695054</v>
+        <v>0.9949855078060234</v>
       </c>
       <c r="F7">
-        <v>1.046367049364352</v>
+        <v>0.997363870109585</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1.034352006150541</v>
+        <v>1.000500028061964</v>
       </c>
       <c r="K7">
-        <v>1.033332426873143</v>
+        <v>0.9992605124689742</v>
       </c>
       <c r="L7">
-        <v>1.040759927685063</v>
+        <v>1.005141810531846</v>
       </c>
       <c r="M7">
-        <v>1.048824392988328</v>
+        <v>1.007491203166524</v>
       </c>
       <c r="N7">
-        <v>1.035820904641108</v>
+        <v>1.001920852860769</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.027977684463047</v>
+        <v>0.9719053539760714</v>
       </c>
       <c r="D8">
-        <v>1.029230022185555</v>
+        <v>0.9816628297194118</v>
       </c>
       <c r="E8">
-        <v>1.036613980787314</v>
+        <v>0.9873527789637705</v>
       </c>
       <c r="F8">
-        <v>1.044460829820965</v>
+        <v>0.988732701338903</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1.033012896046097</v>
+        <v>0.9943611426919987</v>
       </c>
       <c r="K8">
-        <v>1.03198059285211</v>
+        <v>0.9930970553648336</v>
       </c>
       <c r="L8">
-        <v>1.039343783782489</v>
+        <v>0.9987068347274224</v>
       </c>
       <c r="M8">
-        <v>1.047168911987314</v>
+        <v>1.000067489824349</v>
       </c>
       <c r="N8">
-        <v>1.034479892846718</v>
+        <v>0.9957732495694385</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.02477746014151</v>
+        <v>0.9556288962569084</v>
       </c>
       <c r="D9">
-        <v>1.026399770131655</v>
+        <v>0.9679161554726833</v>
       </c>
       <c r="E9">
-        <v>1.03367400778006</v>
+        <v>0.9731125728772059</v>
       </c>
       <c r="F9">
-        <v>1.041104043147697</v>
+        <v>0.9726353356386741</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1.030647942229689</v>
+        <v>0.9828520484017852</v>
       </c>
       <c r="K9">
-        <v>1.029593986455952</v>
+        <v>0.981552141867183</v>
       </c>
       <c r="L9">
-        <v>1.036844191959806</v>
+        <v>0.9866574824338793</v>
       </c>
       <c r="M9">
-        <v>1.044250060285979</v>
+        <v>0.9861885571128983</v>
       </c>
       <c r="N9">
-        <v>1.032111580524626</v>
+        <v>0.9842478110452214</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.022642151200195</v>
+        <v>0.9440124074524223</v>
       </c>
       <c r="D10">
-        <v>1.024512548296932</v>
+        <v>0.9581518334429977</v>
       </c>
       <c r="E10">
-        <v>1.031713812199103</v>
+        <v>0.9629972568142946</v>
       </c>
       <c r="F10">
-        <v>1.038867404259758</v>
+        <v>0.9612019969825776</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>1.029067567110578</v>
+        <v>0.9746380199364333</v>
       </c>
       <c r="K10">
-        <v>1.027999698602441</v>
+        <v>0.9733201390135021</v>
       </c>
       <c r="L10">
-        <v>1.035174795042702</v>
+        <v>0.9780683688586362</v>
       </c>
       <c r="M10">
-        <v>1.042302789122539</v>
+        <v>0.9763089695092015</v>
       </c>
       <c r="N10">
-        <v>1.030528961091575</v>
+        <v>0.9760221177172864</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.021717040028188</v>
+        <v>0.9387711034653242</v>
       </c>
       <c r="D11">
-        <v>1.023695221703369</v>
+        <v>0.9537591416940795</v>
       </c>
       <c r="E11">
-        <v>1.030864925184077</v>
+        <v>0.9584464162916863</v>
       </c>
       <c r="F11">
-        <v>1.037899143375257</v>
+        <v>0.9560577977624909</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>1.028382316426072</v>
+        <v>0.9709331829041044</v>
       </c>
       <c r="K11">
-        <v>1.027308548652399</v>
+        <v>0.9696091553519309</v>
       </c>
       <c r="L11">
-        <v>1.034451170293382</v>
+        <v>0.9741969532527297</v>
       </c>
       <c r="M11">
-        <v>1.041459220739039</v>
+        <v>0.9718588662892411</v>
       </c>
       <c r="N11">
-        <v>1.029842737272497</v>
+        <v>0.9723120193914209</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.021373330462032</v>
+        <v>0.9367896109845903</v>
       </c>
       <c r="D12">
-        <v>1.023391604010616</v>
+        <v>0.9521005868818286</v>
       </c>
       <c r="E12">
-        <v>1.0305495899387</v>
+        <v>0.9567280986495014</v>
       </c>
       <c r="F12">
-        <v>1.037539515714689</v>
+        <v>0.9541153168609172</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>1.028127639064292</v>
+        <v>0.9695328743099314</v>
       </c>
       <c r="K12">
-        <v>1.027051698930343</v>
+        <v>0.9682068332204835</v>
       </c>
       <c r="L12">
-        <v>1.034182264958065</v>
+        <v>0.9727340843832186</v>
       </c>
       <c r="M12">
-        <v>1.041145819046869</v>
+        <v>0.9701777529665717</v>
       </c>
       <c r="N12">
-        <v>1.029587698239652</v>
+        <v>0.9709097221984262</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.021447061137352</v>
+        <v>0.9372162657039619</v>
       </c>
       <c r="D13">
-        <v>1.0234567322883</v>
+        <v>0.9524576081384869</v>
       </c>
       <c r="E13">
-        <v>1.030617231431484</v>
+        <v>0.9570979869802579</v>
       </c>
       <c r="F13">
-        <v>1.037616655907344</v>
+        <v>0.9545334655714054</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>1.028182274834975</v>
+        <v>0.9698343721487255</v>
       </c>
       <c r="K13">
-        <v>1.027106799823219</v>
+        <v>0.9685087503502907</v>
       </c>
       <c r="L13">
-        <v>1.034239951509002</v>
+        <v>0.9730490336702162</v>
       </c>
       <c r="M13">
-        <v>1.041213047692358</v>
+        <v>0.9705396707780718</v>
       </c>
       <c r="N13">
-        <v>1.029642411599396</v>
+        <v>0.971211648198734</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.021688630595919</v>
+        <v>0.9386080373049902</v>
       </c>
       <c r="D14">
-        <v>1.023670125128552</v>
+        <v>0.9536226075491838</v>
       </c>
       <c r="E14">
-        <v>1.030838859924248</v>
+        <v>0.9583049635047383</v>
       </c>
       <c r="F14">
-        <v>1.03786941590941</v>
+        <v>0.955897894593433</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>1.028361267691008</v>
+        <v>0.970817937856481</v>
       </c>
       <c r="K14">
-        <v>1.027287319963415</v>
+        <v>0.9694937382151656</v>
       </c>
       <c r="L14">
-        <v>1.034428944942706</v>
+        <v>0.9740765513082569</v>
       </c>
       <c r="M14">
-        <v>1.041433316166309</v>
+        <v>0.9717204932772961</v>
       </c>
       <c r="N14">
-        <v>1.029821658645816</v>
+        <v>0.972196610682611</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.021837458463471</v>
+        <v>0.9394608711292789</v>
       </c>
       <c r="D15">
-        <v>1.02380159990479</v>
+        <v>0.9543367664546297</v>
       </c>
       <c r="E15">
-        <v>1.030975409664376</v>
+        <v>0.9590448478505563</v>
       </c>
       <c r="F15">
-        <v>1.038025153180162</v>
+        <v>0.9567342803571729</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>1.028471531801369</v>
+        <v>0.9714206815749009</v>
       </c>
       <c r="K15">
-        <v>1.027398527590114</v>
+        <v>0.9700973946654322</v>
       </c>
       <c r="L15">
-        <v>1.034545374162417</v>
+        <v>0.9747062825141087</v>
       </c>
       <c r="M15">
-        <v>1.041569022376539</v>
+        <v>0.9724442344531169</v>
       </c>
       <c r="N15">
-        <v>1.02993207934386</v>
+        <v>0.9728002103662472</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.022703536584787</v>
+        <v>0.9443555647070252</v>
       </c>
       <c r="D16">
-        <v>1.024566788122119</v>
+        <v>0.9584397126873169</v>
       </c>
       <c r="E16">
-        <v>1.031770147356644</v>
+        <v>0.9632954942788742</v>
       </c>
       <c r="F16">
-        <v>1.038931668698935</v>
+        <v>0.9615391067712156</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>1.029113024854575</v>
+        <v>0.9748806188999418</v>
       </c>
       <c r="K16">
-        <v>1.028045550504569</v>
+        <v>0.9735631823341537</v>
       </c>
       <c r="L16">
-        <v>1.035222803180625</v>
+        <v>0.978321930383987</v>
       </c>
       <c r="M16">
-        <v>1.042358765423203</v>
+        <v>0.9766004921671325</v>
       </c>
       <c r="N16">
-        <v>1.030574483390782</v>
+        <v>0.9762650611991495</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.023246664388997</v>
+        <v>0.9473673720257125</v>
       </c>
       <c r="D17">
-        <v>1.025046728201882</v>
+        <v>0.9609678382383449</v>
       </c>
       <c r="E17">
-        <v>1.032268632942376</v>
+        <v>0.9659145552426728</v>
       </c>
       <c r="F17">
-        <v>1.039500356710895</v>
+        <v>0.9644994859774301</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>1.029515162702888</v>
+        <v>0.9770100103794799</v>
       </c>
       <c r="K17">
-        <v>1.02845119063878</v>
+        <v>0.9756966973942688</v>
       </c>
       <c r="L17">
-        <v>1.035647528930457</v>
+        <v>0.9805478397133388</v>
       </c>
       <c r="M17">
-        <v>1.042854043434037</v>
+        <v>0.979159979642849</v>
       </c>
       <c r="N17">
-        <v>1.030977192320966</v>
+        <v>0.9783974766588331</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.023563412991789</v>
+        <v>0.9491039352110107</v>
       </c>
       <c r="D18">
-        <v>1.025326655217996</v>
+        <v>0.9624267218665483</v>
       </c>
       <c r="E18">
-        <v>1.032559380893348</v>
+        <v>0.9674258918671863</v>
       </c>
       <c r="F18">
-        <v>1.039832084249133</v>
+        <v>0.9662077493679628</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>1.029749632680744</v>
+        <v>0.9782378988623106</v>
       </c>
       <c r="K18">
-        <v>1.028687715498335</v>
+        <v>0.9769271472034708</v>
       </c>
       <c r="L18">
-        <v>1.035895190745699</v>
+        <v>0.9818316280047532</v>
       </c>
       <c r="M18">
-        <v>1.043142893684339</v>
+        <v>0.9806364403414947</v>
       </c>
       <c r="N18">
-        <v>1.031211995273084</v>
+        <v>0.9796271088841504</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.02367140799919</v>
+        <v>0.9496927190060639</v>
       </c>
       <c r="D19">
-        <v>1.025422100860331</v>
+        <v>0.9629215574310391</v>
       </c>
       <c r="E19">
-        <v>1.03265851682293</v>
+        <v>0.9679385154409642</v>
       </c>
       <c r="F19">
-        <v>1.039945198563258</v>
+        <v>0.9667871640273588</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>1.029829565696024</v>
+        <v>0.978654231639975</v>
       </c>
       <c r="K19">
-        <v>1.028768351217203</v>
+        <v>0.9773443791407158</v>
       </c>
       <c r="L19">
-        <v>1.035979624672345</v>
+        <v>0.9822669554818789</v>
       </c>
       <c r="M19">
-        <v>1.043241378014307</v>
+        <v>0.9811371508247075</v>
       </c>
       <c r="N19">
-        <v>1.031292041802415</v>
+        <v>0.9800440329021129</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.023188396991427</v>
+        <v>0.9470463400101835</v>
       </c>
       <c r="D20">
-        <v>1.024995236643481</v>
+        <v>0.9606982361321214</v>
       </c>
       <c r="E20">
-        <v>1.032215151250651</v>
+        <v>0.9656352580924334</v>
       </c>
       <c r="F20">
-        <v>1.039439339691132</v>
+        <v>0.9641837943291002</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>1.029472026479032</v>
+        <v>0.9767830235021813</v>
       </c>
       <c r="K20">
-        <v>1.02840767740486</v>
+        <v>0.975469251787884</v>
       </c>
       <c r="L20">
-        <v>1.035601967512463</v>
+        <v>0.9803105389042671</v>
       </c>
       <c r="M20">
-        <v>1.042800908656557</v>
+        <v>0.9788870874625162</v>
       </c>
       <c r="N20">
-        <v>1.030933994838725</v>
+        <v>0.9781701674341331</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.021617496723347</v>
+        <v>0.9381991764910418</v>
       </c>
       <c r="D21">
-        <v>1.023607287012213</v>
+        <v>0.953280305953886</v>
       </c>
       <c r="E21">
-        <v>1.030773596466803</v>
+        <v>0.9579503296379072</v>
       </c>
       <c r="F21">
-        <v>1.037794983670888</v>
+        <v>0.9554970019078032</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>1.028308562782891</v>
+        <v>0.9705289859399324</v>
       </c>
       <c r="K21">
-        <v>1.027234164785899</v>
+        <v>0.9692043598582857</v>
       </c>
       <c r="L21">
-        <v>1.034373294400772</v>
+        <v>0.9737746760826631</v>
       </c>
       <c r="M21">
-        <v>1.041368454362952</v>
+        <v>0.9713735671499573</v>
       </c>
       <c r="N21">
-        <v>1.029768878890683</v>
+        <v>0.9719072484211977</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.020629331602536</v>
+        <v>0.9324344990860655</v>
       </c>
       <c r="D22">
-        <v>1.022734474334226</v>
+        <v>0.9484593717975472</v>
       </c>
       <c r="E22">
-        <v>1.029867111170913</v>
+        <v>0.952955570789737</v>
       </c>
       <c r="F22">
-        <v>1.036761268503874</v>
+        <v>0.9498503437477739</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>1.027576207601986</v>
+        <v>0.9664558763341891</v>
       </c>
       <c r="K22">
-        <v>1.026495600789228</v>
+        <v>0.9651259999416175</v>
       </c>
       <c r="L22">
-        <v>1.033600089044928</v>
+        <v>0.9695203706438141</v>
       </c>
       <c r="M22">
-        <v>1.040467447624598</v>
+        <v>0.9664853322354899</v>
       </c>
       <c r="N22">
-        <v>1.02903548368142</v>
+        <v>0.9678283545326221</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.021153223831285</v>
+        <v>0.9355106847126362</v>
       </c>
       <c r="D23">
-        <v>1.023197184788924</v>
+        <v>0.9510307164215467</v>
       </c>
       <c r="E23">
-        <v>1.03034766926263</v>
+        <v>0.955619661500536</v>
       </c>
       <c r="F23">
-        <v>1.037309247385818</v>
+        <v>0.9528622357238512</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>1.02796452379171</v>
+        <v>0.96862917093534</v>
       </c>
       <c r="K23">
-        <v>1.02688719799077</v>
+        <v>0.967301919722099</v>
       </c>
       <c r="L23">
-        <v>1.034010046548583</v>
+        <v>0.9717901215952717</v>
       </c>
       <c r="M23">
-        <v>1.040945124589173</v>
+        <v>0.9690930761432528</v>
       </c>
       <c r="N23">
-        <v>1.029424351324673</v>
+        <v>0.9700047354613869</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.02321472567028</v>
+        <v>0.9471914626856708</v>
       </c>
       <c r="D24">
-        <v>1.025018503505078</v>
+        <v>0.9608201061663437</v>
       </c>
       <c r="E24">
-        <v>1.032239317356518</v>
+        <v>0.9657615107102134</v>
       </c>
       <c r="F24">
-        <v>1.039466910589366</v>
+        <v>0.9643264986972917</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>1.029491518160383</v>
+        <v>0.9768856326859949</v>
       </c>
       <c r="K24">
-        <v>1.028427339403589</v>
+        <v>0.975572067770983</v>
       </c>
       <c r="L24">
-        <v>1.035622554983062</v>
+        <v>0.9804178097336307</v>
       </c>
       <c r="M24">
-        <v>1.042824918089506</v>
+        <v>0.9790104463437038</v>
       </c>
       <c r="N24">
-        <v>1.030953514200498</v>
+        <v>0.9782729223347573</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.025605095095596</v>
+        <v>0.9599625361728361</v>
       </c>
       <c r="D25">
-        <v>1.027131511033063</v>
+        <v>0.971568827352152</v>
       </c>
       <c r="E25">
-        <v>1.034434082541934</v>
+        <v>0.9768964137255632</v>
       </c>
       <c r="F25">
-        <v>1.041971618222793</v>
+        <v>0.9769122495716159</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>1.031259984173877</v>
+        <v>0.985916756395854</v>
       </c>
       <c r="K25">
-        <v>1.030211534456443</v>
+        <v>0.9846251404318863</v>
       </c>
       <c r="L25">
-        <v>1.037490910712362</v>
+        <v>0.9898642937315898</v>
       </c>
       <c r="M25">
-        <v>1.045004877348884</v>
+        <v>0.9898798685667914</v>
       </c>
       <c r="N25">
-        <v>1.032724491638578</v>
+        <v>0.9873168712761686</v>
       </c>
     </row>
   </sheetData>
